--- a/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
+++ b/SensorBoard/Project Outputs for SensorBoard/BOM/Bill of Materials-SensorBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Observator\SensorBoard\Project Outputs for SensorBoard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32BD1045-E068-455E-8C67-B03B6F631143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9A41D5-7D61-4575-823C-208B4294C320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{A0DCAACF-E101-4585-A9CF-A055927114C9}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{CFDF2FC0-85F9-462C-8679-76045F34BD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SensorBoard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+  <si>
+    <t>Designator</t>
+  </si>
   <si>
     <t>Comment</t>
   </si>
@@ -45,31 +48,40 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Supplier PN</t>
+  </si>
+  <si>
+    <t>MFR</t>
+  </si>
+  <si>
+    <t>MFR PN</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>3V3, RX, TX</t>
+  </si>
+  <si>
     <t>TBD</t>
   </si>
   <si>
     <t>Typical INFRARED GaAs LED</t>
   </si>
   <si>
-    <t>3V3, RX, TX</t>
-  </si>
-  <si>
     <t>CASE0603</t>
   </si>
   <si>
-    <t>LED</t>
+    <t>C1, C2, C3, C4, C5, C7, C8, C9, C10, C11, C12, C14, C15, C17, C18, C19</t>
   </si>
   <si>
     <t>100nF</t>
@@ -78,10 +90,22 @@
     <t>CAP CER 100nF 5% 25V X7R 0603</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C7, C8, C9, C10, C11, C12, C14, C15, C17, C18, C19</t>
-  </si>
-  <si>
-    <t>Capacitor_100nF</t>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>80-C0603C104J3RAC</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0603C104J3RAC</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/KEMET/C0603C104J3RAC?qs=zlI8QACJnq%252BcGF637t1xBQ%3D%3D</t>
+  </si>
+  <si>
+    <t>C6, C13, C16</t>
   </si>
   <si>
     <t>10uF</t>
@@ -90,10 +114,19 @@
     <t>CAP CER 10uF 20% 25V X5R 0603</t>
   </si>
   <si>
-    <t>C6, C13, C16</t>
-  </si>
-  <si>
-    <t>Capacitor_10uF</t>
+    <t>810-C1608X5R1E106M</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C1608X5R1E106M080AC</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TDK/C1608X5R1E106M080AC?qs=dfay7wIA1uGdHfZTkqsICA%3D%3D</t>
+  </si>
+  <si>
+    <t>D1, D2, D3</t>
   </si>
   <si>
     <t>SMAJ5.0CA</t>
@@ -102,13 +135,22 @@
     <t>9.2V Clamp 43.5A Ipp Tvs Diode Surface Mount DO-214AC (SMA)</t>
   </si>
   <si>
-    <t>D1, D2, D3</t>
-  </si>
-  <si>
     <t>SMA</t>
   </si>
   <si>
-    <t>Diode_SMAJ5.0CA</t>
+    <t>Digi Key</t>
+  </si>
+  <si>
+    <t>4786-SMAJ5.0CACT-ND</t>
+  </si>
+  <si>
+    <t>Good-Ark Semiconductor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ro/en/products/detail/good-ark-semiconductor/SMAJ5-0CA/18649098</t>
+  </si>
+  <si>
+    <t>J1, J2A, J2B, J3A, J3B, J4A, J4B</t>
   </si>
   <si>
     <t>691210910002</t>
@@ -117,10 +159,16 @@
     <t>TERM BLOCK 2P HORIZON 2.54MM PCB</t>
   </si>
   <si>
-    <t>J1, J2A, J2B, J3A, J3B, J4A, J4B</t>
-  </si>
-  <si>
-    <t>Connector_691210910002</t>
+    <t>732-691210910002-ND</t>
+  </si>
+  <si>
+    <t>Wurth</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ro/en/products/detail/w%C3%BCrth-elektronik/691210910002/10668428?s=N4IgTCBcDaIGwE4CMYkAZlqxAugXyA</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
   <si>
     <t>PH2-06-UA</t>
@@ -129,13 +177,19 @@
     <t>Connector Header Through Hole 6 position 0.100" (2.54mm)</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>Header_2x3_2.54_Male</t>
   </si>
   <si>
-    <t>Connector_PH2-06-UA</t>
+    <t>2057-PH2-06-UA-ND</t>
+  </si>
+  <si>
+    <t>Adam Tech</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ro/en/products/detail/adam-tech/PH2-06-UA/9830396</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15</t>
   </si>
   <si>
     <t>10K</t>
@@ -144,22 +198,37 @@
     <t>RES 10K 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15</t>
-  </si>
-  <si>
-    <t>Resistor_10K_0603</t>
+    <t>603-RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/YAGEO/RC0603FR-0710KL?qs=grNVn54RoB%252B3GtjbJj3wJQ%3D%3D</t>
+  </si>
+  <si>
+    <t>RESET</t>
   </si>
   <si>
     <t>PTS636 SL43 SMTR LFS</t>
   </si>
   <si>
-    <t>RESET</t>
-  </si>
-  <si>
     <t>SMT Button</t>
   </si>
   <si>
-    <t>Button_PTS636 SL43 SMTR LFS</t>
+    <t>CKN12309-1-ND</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ro/en/products/detail/c-k/PTS636-SL43-SMTR-LFS/10071722</t>
+  </si>
+  <si>
+    <t>U1</t>
   </si>
   <si>
     <t>ATMEGA328P-AU</t>
@@ -168,13 +237,19 @@
     <t>AVR AVR® ATmega Microcontroller IC 8-Bit 20MHz 32KB (16K x 16) FLASH 32-TQFP (7x7)</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>TQFP-32</t>
   </si>
   <si>
-    <t>IC_ATMEGA328</t>
+    <t>ATMEGA328P-AU-ND</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATMEGA328P-AU/1832260</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
   <si>
     <t>AM2302/DHT22</t>
@@ -183,25 +258,31 @@
     <t>DIGITAL HUMIDITY, PRESSURE AND TEMPERATURE SENSOR</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>AM2302_TEMP_HUMID_SENSOR</t>
   </si>
   <si>
-    <t>IC_AM2302/DHT22</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>U4</t>
   </si>
   <si>
     <t>BME280</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
     <t>VFLGA-8</t>
   </si>
   <si>
-    <t>IC_BME280</t>
+    <t>828-1063-1-ND</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ro/en/products/detail/bosch-sensortec/BME280/6136306</t>
+  </si>
+  <si>
+    <t>U5</t>
   </si>
   <si>
     <t>MCP1703T-3302E/MB</t>
@@ -210,25 +291,37 @@
     <t>IC REG LINEAR 3.3V 250MA SOT89-3</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
     <t>SOT-223-3</t>
   </si>
   <si>
+    <t>MCP1703T-3302E/MBCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ro/en/products/detail/microchip-technology/MCP1703T-3302E-MB/1635604</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
     <t>LSM6DSOXTR</t>
   </si>
   <si>
     <t>Accelerometer, Gyroscope, 6 Axis Sensor I²C, SPI Output</t>
   </si>
   <si>
-    <t>U6</t>
-  </si>
-  <si>
     <t>VFLGA-14</t>
   </si>
   <si>
-    <t>IC_LSM6DSOXTR</t>
+    <t>497-18367-1-ND</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>https://www.digikey.gr/en/products/detail/stmicroelectronics/LSM6DSOXTR/9841882?s=N4IgTCBcDaIDIGUCyA2AIgg8gDQCoCUQBdAXyA</t>
+  </si>
+  <si>
+    <t>U7</t>
   </si>
   <si>
     <t>MAX3471CUA+</t>
@@ -237,13 +330,19 @@
     <t>IC TRANSCEIVER HALF 1/1 8UMAX</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
     <t>TSSOP-8</t>
   </si>
   <si>
-    <t>IC_MAX3471</t>
+    <t>MAX3471CUA+-ND</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc-maxim-integrated/max3471cua/1702211</t>
+  </si>
+  <si>
+    <t>Y1</t>
   </si>
   <si>
     <t>AS-16.000-18</t>
@@ -252,13 +351,16 @@
     <t>16 MHz ±30ppm Crystal 18pF 40 Ohms HC-49/US</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
     <t>HC-49/US</t>
   </si>
   <si>
-    <t>Crystal_AS-16.000-18</t>
+    <t>2151-AS-16.000-18-ND</t>
+  </si>
+  <si>
+    <t>Raltron Electronics</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ro/en/products/detail/raltron-electronics/AS-16-000-18/10271769</t>
   </si>
 </sst>
 </file>
@@ -640,20 +742,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527067B5-4242-4CB4-8D96-8249AD34C64E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DC1DCB-FFCF-4C8E-BE09-7F92EA724A33}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,310 +776,492 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="75" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup scale="40" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>